--- a/exercicios/1.3_exercicio-pclinics/ex1.3.clinica.fisico.xlsx
+++ b/exercicios/1.3_exercicio-pclinics/ex1.3.clinica.fisico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unicor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47d01a3922a6cb93/Área de Trabalho/senai_sprint1-bd/exercicios/1.3_exercicio-pclinics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F97BF86-5260-4579-9188-DCBD67F857CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5F97BF86-5260-4579-9188-DCBD67F857CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{88B95432-F2E0-43A3-86D6-23A9B6ABEACA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2740344-1806-4986-B2D9-5CE4032E89C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Clinica</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Rua Olga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -245,9 +248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,16 +257,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -274,6 +265,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -599,7 +602,7 @@
   <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,198 +618,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="9"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="9"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="9"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="10"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11" t="s">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="6"/>
+      <c r="O3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="12">
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
         <v>5</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="12">
-        <v>1</v>
-      </c>
-      <c r="L4" s="12">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="12">
-        <v>2</v>
-      </c>
-      <c r="P4" s="12" t="s">
+      <c r="N4" s="6"/>
+      <c r="O4" s="8">
+        <v>2</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="12">
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="12">
-        <v>2</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="12">
-        <v>2</v>
-      </c>
-      <c r="L5" s="12">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="8">
+        <v>2</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="12">
+      <c r="N5" s="6"/>
+      <c r="O5" s="8">
         <v>4</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="12">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="8">
         <v>3</v>
       </c>
-      <c r="L6" s="12">
-        <v>1</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="12">
+      <c r="N6" s="6"/>
+      <c r="O6" s="8">
         <v>6</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="12">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8">
         <v>4</v>
       </c>
-      <c r="L7" s="12">
-        <v>2</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="L7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
@@ -816,127 +819,127 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="12">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="8">
         <v>5</v>
       </c>
-      <c r="L8" s="12">
-        <v>2</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <v>43889</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="9">
         <v>41856</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>3</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>4</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="9">
         <v>42531</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>4</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>4</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="9">
         <v>43417</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
